--- a/final_result/A3.xlsx
+++ b/final_result/A3.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowHeight="24460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="15">
   <si>
     <t>月份</t>
   </si>
@@ -44,20 +31,59 @@
     <t>金额（元）</t>
   </si>
   <si>
+    <t>补充缺失后时间线</t>
+  </si>
+  <si>
+    <t>差分数据（少一个哦）</t>
+  </si>
+  <si>
+    <t>差分度量下的训练集\测试集图</t>
+  </si>
+  <si>
+    <t>正常尺度下的数据性能(测试集+训练集) 含训练集，所以指标较好</t>
+  </si>
+  <si>
+    <t>差分视角下的数据性能(仅含测试集)</t>
+  </si>
+  <si>
+    <t>训练策略</t>
+  </si>
+  <si>
     <t>A(硬蓝爱你)</t>
+  </si>
+  <si>
+    <t>r2: 0.8761615897926869
+mse: 1691083727557.2249
+mae: 930495.6744815088</t>
+  </si>
+  <si>
+    <t>r2: -0.04941082811806404
+mse: 0.31401256
+mae: 0.36555156</t>
+  </si>
+  <si>
+    <t>19年前数据乘周期性上升趋势，20年初疫情爆发后，数据成周期性下降趋势
+因此我们用20年及其以后的数据进行训练和预测 。由于24年初的防疫政策发生了重大调整，这在训练数据中是不可见的情况，所以我们将预测的数据值普遍上调一个比例。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,133 +571,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -685,14 +711,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1219,21 +1243,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:E110"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="24.7788461538462" customWidth="1"/>
+    <col min="7" max="7" width="24.6538461538462" customWidth="1"/>
+    <col min="8" max="8" width="46.2019230769231" customWidth="1"/>
+    <col min="9" max="11" width="85.5480769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1277,26 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:11">
       <c r="A2" s="2">
         <v>201406</v>
       </c>
@@ -1258,7 +1304,7 @@
         <v>42050329</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>6.596</v>
@@ -1266,8 +1312,23 @@
       <c r="E2" s="2">
         <v>118728</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2">
+        <v>201406</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.20602441082161</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>201407</v>
       </c>
@@ -1275,7 +1336,7 @@
         <v>42050329</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>24.372</v>
@@ -1283,8 +1344,14 @@
       <c r="E3" s="2">
         <v>438696</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2">
+        <v>201407</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.343407435160028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>201408</v>
       </c>
@@ -1292,7 +1359,7 @@
         <v>42050329</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>34.768</v>
@@ -1300,8 +1367,14 @@
       <c r="E4" s="2">
         <v>625824</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2">
+        <v>201408</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-0.000559315412533845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>201409</v>
       </c>
@@ -1309,7 +1382,7 @@
         <v>42050329</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>34.748</v>
@@ -1317,8 +1390,14 @@
       <c r="E5" s="2">
         <v>625464</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2">
+        <v>201409</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.34571660829649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>201410</v>
       </c>
@@ -1326,7 +1405,7 @@
         <v>42050329</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>49.512</v>
@@ -1334,8 +1413,14 @@
       <c r="E6" s="2">
         <v>891216</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2">
+        <v>201410</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.00906553053439696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>201411</v>
       </c>
@@ -1343,7 +1428,7 @@
         <v>42050329</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>49.972</v>
@@ -1351,8 +1436,14 @@
       <c r="E7" s="2">
         <v>899496</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2">
+        <v>201411</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-0.729831679211512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>201412</v>
       </c>
@@ -1360,7 +1451,7 @@
         <v>42050329</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>23.568</v>
@@ -1368,8 +1459,14 @@
       <c r="E8" s="2">
         <v>424224</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2">
+        <v>201412</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.835341285222291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>201501</v>
       </c>
@@ -1377,7 +1474,7 @@
         <v>42050329</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>55.644</v>
@@ -1385,8 +1482,14 @@
       <c r="E9" s="2">
         <v>1001592</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2">
+        <v>201501</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.64399470748062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>201502</v>
       </c>
@@ -1394,7 +1497,7 @@
         <v>42050329</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>9.944</v>
@@ -1402,8 +1505,14 @@
       <c r="E10" s="2">
         <v>178992</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2">
+        <v>201502</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.230426904705318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>201503</v>
       </c>
@@ -1411,7 +1520,7 @@
         <v>42050329</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2">
         <v>12.78</v>
@@ -1419,8 +1528,14 @@
       <c r="E11" s="2">
         <v>230040</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2">
+        <v>201503</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.623351206521881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>201505</v>
       </c>
@@ -1428,7 +1543,7 @@
         <v>42050329</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>57.88</v>
@@ -1436,8 +1551,14 @@
       <c r="E12" s="2">
         <v>1083087.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2">
+        <v>201504</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.828932002313228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>201506</v>
       </c>
@@ -1445,7 +1566,7 @@
         <v>42050329</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>158.048</v>
@@ -1453,8 +1574,14 @@
       <c r="E13" s="2">
         <v>3015555.84</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2">
+        <v>201505</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.993704569033414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>201507</v>
       </c>
@@ -1462,7 +1589,7 @@
         <v>42050329</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>76.976</v>
@@ -1470,8 +1597,14 @@
       <c r="E14" s="2">
         <v>1468702.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2">
+        <v>201506</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-0.712804956419126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>201508</v>
       </c>
@@ -1479,7 +1612,7 @@
         <v>42050329</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>117.508</v>
@@ -1487,8 +1620,14 @@
       <c r="E15" s="2">
         <v>2242052.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2">
+        <v>201507</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.418579381810066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>201509</v>
       </c>
@@ -1496,7 +1635,7 @@
         <v>42050329</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
         <v>127.072</v>
@@ -1504,8 +1643,14 @@
       <c r="E16" s="2">
         <v>2424533.76</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2">
+        <v>201508</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.0776121369308189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>201510</v>
       </c>
@@ -1513,7 +1658,7 @@
         <v>42050329</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>86.608</v>
@@ -1521,8 +1666,14 @@
       <c r="E17" s="2">
         <v>1652480.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2">
+        <v>201509</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-0.379720287802336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>201511</v>
       </c>
@@ -1530,7 +1681,7 @@
         <v>42050329</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>140.832</v>
@@ -1538,8 +1689,14 @@
       <c r="E18" s="2">
         <v>2687074.56</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2">
+        <v>201510</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.481770940622622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>201512</v>
       </c>
@@ -1547,7 +1704,7 @@
         <v>42050329</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2">
         <v>100.172</v>
@@ -1555,8 +1712,14 @@
       <c r="E19" s="2">
         <v>1911281.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2">
+        <v>201511</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-0.337821219867541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>201601</v>
       </c>
@@ -1564,7 +1727,7 @@
         <v>42050329</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2">
         <v>230</v>
@@ -1572,8 +1735,14 @@
       <c r="E20" s="2">
         <v>4388400</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2">
+        <v>201512</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.825595671793255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>201602</v>
       </c>
@@ -1581,7 +1750,7 @@
         <v>42050329</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2">
         <v>49.008</v>
@@ -1589,8 +1758,14 @@
       <c r="E21" s="2">
         <v>935072.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2">
+        <v>201601</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1.53023471789228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>201603</v>
       </c>
@@ -1598,7 +1773,7 @@
         <v>42050329</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2">
         <v>158.112</v>
@@ -1606,8 +1781,14 @@
       <c r="E22" s="2">
         <v>3016776.96</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2">
+        <v>201602</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.15742536413143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>201604</v>
       </c>
@@ -1615,7 +1796,7 @@
         <v>42050329</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2">
         <v>227.492</v>
@@ -1623,8 +1804,14 @@
       <c r="E23" s="2">
         <v>4340547.36</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2">
+        <v>201603</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.361892842019498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>201605</v>
       </c>
@@ -1632,7 +1819,7 @@
         <v>42050329</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
         <v>54.648</v>
@@ -1640,8 +1827,14 @@
       <c r="E24" s="2">
         <v>1042683.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2">
+        <v>201604</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-1.41245506060857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>201606</v>
       </c>
@@ -1649,7 +1842,7 @@
         <v>42050329</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2">
         <v>212.652</v>
@@ -1657,8 +1850,14 @@
       <c r="E25" s="2">
         <v>4057400.16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="2">
+        <v>201605</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.34530238497896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>201607</v>
       </c>
@@ -1666,7 +1865,7 @@
         <v>42050329</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2">
         <v>266.5</v>
@@ -1674,8 +1873,14 @@
       <c r="E26" s="2">
         <v>5084820</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="2">
+        <v>201606</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.224771043185232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>201608</v>
       </c>
@@ -1683,7 +1888,7 @@
         <v>42050329</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2">
         <v>256.88</v>
@@ -1691,8 +1896,14 @@
       <c r="E27" s="2">
         <v>4901270.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="2">
+        <v>201607</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-0.0366252058936416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>201609</v>
       </c>
@@ -1700,16 +1911,22 @@
         <v>42050329</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2">
         <v>568.12</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>10839729.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="2">
+        <v>201608</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.791596947757726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>201610</v>
       </c>
@@ -1717,7 +1934,7 @@
         <v>42050329</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2">
         <v>522.112</v>
@@ -1725,8 +1942,14 @@
       <c r="E29" s="2">
         <v>9961896.96</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="2">
+        <v>201609</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-0.0842957179222967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>201611</v>
       </c>
@@ -1734,7 +1957,7 @@
         <v>42050329</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2">
         <v>424.516</v>
@@ -1742,8 +1965,14 @@
       <c r="E30" s="2">
         <v>8099765.28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="2">
+        <v>201610</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-0.206493040151177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>201612</v>
       </c>
@@ -1751,7 +1980,7 @@
         <v>42050329</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2">
         <v>5.112</v>
@@ -1759,8 +1988,14 @@
       <c r="E31" s="2">
         <v>97536.96</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="2">
+        <v>201611</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-4.24304849826245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>201701</v>
       </c>
@@ -1768,16 +2003,22 @@
         <v>42050329</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2">
         <v>983.28</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>18760982.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="2">
+        <v>201612</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5.08165635755608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>201702</v>
       </c>
@@ -1785,7 +2026,7 @@
         <v>42050329</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2">
         <v>201.564</v>
@@ -1793,8 +2034,14 @@
       <c r="E33" s="2">
         <v>3845841.12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="2">
+        <v>201701</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1.58085452342407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>201703</v>
       </c>
@@ -1802,7 +2049,7 @@
         <v>42050329</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2">
         <v>339.452</v>
@@ -1810,8 +2057,14 @@
       <c r="E34" s="2">
         <v>6476744.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="2">
+        <v>201702</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.51921826049326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>201704</v>
       </c>
@@ -1819,7 +2072,7 @@
         <v>42050329</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2">
         <v>390.864</v>
@@ -1827,8 +2080,14 @@
       <c r="E35" s="2">
         <v>7457685.12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="2">
+        <v>201703</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.140640694328287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>201705</v>
       </c>
@@ -1836,7 +2095,7 @@
         <v>42050329</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2">
         <v>419.688</v>
@@ -1844,8 +2103,14 @@
       <c r="E36" s="2">
         <v>8007647.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="2">
+        <v>201704</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.0709766254831328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>201706</v>
       </c>
@@ -1853,7 +2118,7 @@
         <v>42050329</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2">
         <v>335.8</v>
@@ -1861,8 +2126,14 @@
       <c r="E37" s="2">
         <v>6407064</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="2">
+        <v>201705</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-0.222402183932733</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>201707</v>
       </c>
@@ -1870,7 +2141,7 @@
         <v>42050329</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2">
         <v>283.104</v>
@@ -1878,8 +2149,14 @@
       <c r="E38" s="2">
         <v>5401624.32</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="2">
+        <v>201706</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-0.170148914057691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>201708</v>
       </c>
@@ -1887,7 +2164,7 @@
         <v>42050329</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2">
         <v>331.184</v>
@@ -1895,8 +2172,14 @@
       <c r="E39" s="2">
         <v>6318990.72</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="2">
+        <v>201707</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.156348663952031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>201709</v>
       </c>
@@ -1904,7 +2187,7 @@
         <v>42050329</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2">
         <v>315.336</v>
@@ -1912,8 +2195,14 @@
       <c r="E40" s="2">
         <v>6016610.88</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="2">
+        <v>201708</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-0.0488840924299865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>201710</v>
       </c>
@@ -1921,7 +2210,7 @@
         <v>42050329</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2">
         <v>266.656</v>
@@ -1929,8 +2218,14 @@
       <c r="E41" s="2">
         <v>5087796.48</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="2">
+        <v>201709</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-0.167102365908326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>201711</v>
       </c>
@@ -1938,7 +2233,7 @@
         <v>42050329</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2">
         <v>441.728</v>
@@ -1946,8 +2241,14 @@
       <c r="E42" s="2">
         <v>8428170.24</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="2">
+        <v>201710</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.50325301206319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>201712</v>
       </c>
@@ -1955,7 +2256,7 @@
         <v>42050329</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2">
         <v>26.192</v>
@@ -1963,8 +2264,14 @@
       <c r="E43" s="2">
         <v>499743.36</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="2">
+        <v>201711</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-2.79003277359357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>201801</v>
       </c>
@@ -1972,16 +2279,22 @@
         <v>42050329</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2">
         <v>1174.46</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>25838120</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="2">
+        <v>201712</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.76649202693418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>201802</v>
       </c>
@@ -1989,7 +2302,7 @@
         <v>42050329</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2">
         <v>276.192</v>
@@ -1997,8 +2310,14 @@
       <c r="E45" s="2">
         <v>6076224</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="2">
+        <v>201801</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-1.44470443245757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>201803</v>
       </c>
@@ -2006,7 +2325,7 @@
         <v>42050329</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2">
         <v>410.964</v>
@@ -2014,8 +2333,14 @@
       <c r="E46" s="2">
         <v>9041208</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="2">
+        <v>201802</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.396225560020585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>201804</v>
       </c>
@@ -2023,7 +2348,7 @@
         <v>42050329</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2">
         <v>347.94</v>
@@ -2031,8 +2356,14 @@
       <c r="E47" s="2">
         <v>7654680</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="2">
+        <v>201803</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-0.166035979239259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>201805</v>
       </c>
@@ -2040,7 +2371,7 @@
         <v>42050329</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2">
         <v>450.536</v>
@@ -2048,8 +2379,14 @@
       <c r="E48" s="2">
         <v>9911792</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="2">
+        <v>201804</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.25775511624595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>201806</v>
       </c>
@@ -2057,7 +2394,7 @@
         <v>42050329</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2">
         <v>379.612</v>
@@ -2065,8 +2402,14 @@
       <c r="E49" s="2">
         <v>8351464</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="2">
+        <v>201805</v>
+      </c>
+      <c r="G49" s="3">
+        <v>-0.170874620368213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>201807</v>
       </c>
@@ -2074,16 +2417,22 @@
         <v>42050329</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2">
         <v>615.372</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>13538184</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="2">
+        <v>201806</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.48207019383605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>201808</v>
       </c>
@@ -2091,16 +2440,22 @@
         <v>42050329</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2">
         <v>583.376</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>12834272</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="2">
+        <v>201807</v>
+      </c>
+      <c r="G51" s="3">
+        <v>-0.053306066094108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>201809</v>
       </c>
@@ -2108,7 +2463,7 @@
         <v>42050329</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2">
         <v>359.692</v>
@@ -2116,8 +2471,14 @@
       <c r="E52" s="2">
         <v>7913224</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="2">
+        <v>201808</v>
+      </c>
+      <c r="G52" s="3">
+        <v>-0.482520202704103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>201810</v>
       </c>
@@ -2125,7 +2486,7 @@
         <v>42050329</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2">
         <v>307.52</v>
@@ -2133,8 +2494,14 @@
       <c r="E53" s="2">
         <v>6765440</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="2">
+        <v>201809</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-0.156237737501534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>201811</v>
       </c>
@@ -2142,7 +2509,7 @@
         <v>42050329</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2">
         <v>184.544</v>
@@ -2150,8 +2517,14 @@
       <c r="E54" s="2">
         <v>4059968</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="2">
+        <v>201810</v>
+      </c>
+      <c r="G54" s="3">
+        <v>-0.508494620379515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>201812</v>
       </c>
@@ -2159,7 +2532,7 @@
         <v>42050329</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2">
         <v>164.124</v>
@@ -2167,8 +2540,14 @@
       <c r="E55" s="2">
         <v>3610728</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="2">
+        <v>201811</v>
+      </c>
+      <c r="G55" s="3">
+        <v>-0.1165953438803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>201901</v>
       </c>
@@ -2176,16 +2555,22 @@
         <v>42050329</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2">
         <v>1322.364</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>29092008</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="2">
+        <v>201812</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2.08123555174216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>201902</v>
       </c>
@@ -2193,7 +2578,7 @@
         <v>42050329</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2">
         <v>254.292</v>
@@ -2201,8 +2586,14 @@
       <c r="E57" s="2">
         <v>5594424</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="2">
+        <v>201901</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-1.64552427047519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>201903</v>
       </c>
@@ -2210,16 +2601,22 @@
         <v>42050329</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2">
         <v>513.288</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>11292336</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="2">
+        <v>201902</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.7003754317505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>201904</v>
       </c>
@@ -2227,16 +2624,22 @@
         <v>42050329</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2">
         <v>544.476</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>11978472</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="2">
+        <v>201903</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.0588753881481629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>201905</v>
       </c>
@@ -2244,7 +2647,7 @@
         <v>42050329</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2">
         <v>306.024</v>
@@ -2252,8 +2655,14 @@
       <c r="E60" s="2">
         <v>6732528</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="2">
+        <v>201904</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-0.574732887544233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>201906</v>
       </c>
@@ -2261,7 +2670,7 @@
         <v>42050329</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
         <v>290.612</v>
@@ -2269,8 +2678,14 @@
       <c r="E61" s="2">
         <v>6393464</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="2">
+        <v>201905</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-0.05150176887624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>201907</v>
       </c>
@@ -2278,7 +2693,7 @@
         <v>42050329</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D62" s="2">
         <v>355.464</v>
@@ -2286,8 +2701,14 @@
       <c r="E62" s="2">
         <v>7820208</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="2">
+        <v>201906</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.200809101437021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>201908</v>
       </c>
@@ -2295,7 +2716,7 @@
         <v>42050329</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2">
         <v>379.644</v>
@@ -2303,8 +2724,14 @@
       <c r="E63" s="2">
         <v>8352168</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="2">
+        <v>201907</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.065631302128331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>201909</v>
       </c>
@@ -2312,7 +2739,7 @@
         <v>42050329</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2">
         <v>382.636</v>
@@ -2320,8 +2747,14 @@
       <c r="E64" s="2">
         <v>8417992</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="2">
+        <v>201908</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.00782963124744107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>201910</v>
       </c>
@@ -2329,7 +2762,7 @@
         <v>42050329</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2">
         <v>210.128</v>
@@ -2337,8 +2770,14 @@
       <c r="E65" s="2">
         <v>4622816</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="2">
+        <v>201909</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-0.597229601745457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>201911</v>
       </c>
@@ -2346,7 +2785,7 @@
         <v>42050329</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2">
         <v>224.604</v>
@@ -2354,8 +2793,14 @@
       <c r="E66" s="2">
         <v>4941288</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="2">
+        <v>201910</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.0663166653446918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>201912</v>
       </c>
@@ -2363,7 +2808,7 @@
         <v>42050329</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2">
         <v>193.48</v>
@@ -2371,8 +2816,20 @@
       <c r="E67" s="2">
         <v>4256560</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="2">
+        <v>201911</v>
+      </c>
+      <c r="G67" s="3">
+        <v>-0.148451919955307</v>
+      </c>
+      <c r="H67" s="3">
+        <v>-0.168406397104263</v>
+      </c>
+      <c r="I67" s="3">
+        <v>4941288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>202001</v>
       </c>
@@ -2380,7 +2837,7 @@
         <v>42050329</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2">
         <v>217.616</v>
@@ -2388,8 +2845,20 @@
       <c r="E68" s="2">
         <v>4787552</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="2">
+        <v>201912</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.116987436102751</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.0970614328980446</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4175439.37270696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>202002</v>
       </c>
@@ -2397,7 +2866,7 @@
         <v>42050329</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2">
         <v>360.048</v>
@@ -2405,8 +2874,20 @@
       <c r="E69" s="2">
         <v>7921056</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="2">
+        <v>202001</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.501694147372254</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.560697019100189</v>
+      </c>
+      <c r="I69" s="3">
+        <v>4601033.93533125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>202003</v>
       </c>
@@ -2414,7 +2895,7 @@
         <v>42050329</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2">
         <v>231.204</v>
@@ -2422,8 +2903,20 @@
       <c r="E70" s="2">
         <v>5086488</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="2">
+        <v>202002</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-0.441394617838602</v>
+      </c>
+      <c r="H70" s="3">
+        <v>-0.454225331544876</v>
+      </c>
+      <c r="I70" s="3">
+        <v>8060520.71418889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>202004</v>
       </c>
@@ -2431,16 +2924,28 @@
         <v>42050329</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2">
         <v>812.744</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="4">
         <v>17880368</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="2">
+        <v>202003</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1.25402952457944</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1.25880134105682</v>
+      </c>
+      <c r="I71" s="3">
+        <v>5117943.79728767</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>202005</v>
       </c>
@@ -2448,16 +2953,28 @@
         <v>42050329</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2">
         <v>695.756</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="4">
         <v>15306632</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="2">
+        <v>202004</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-0.155210542488609</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-0.152193397283554</v>
+      </c>
+      <c r="I72" s="3">
+        <v>18021297.2177074</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>202006</v>
       </c>
@@ -2465,16 +2982,28 @@
         <v>42050329</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2">
         <v>751.336</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="4">
         <v>16529392</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="2">
+        <v>202005</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.0767477549361812</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.0755915269255638</v>
+      </c>
+      <c r="I73" s="3">
+        <v>15477089.4560404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>202007</v>
       </c>
@@ -2482,7 +3011,7 @@
         <v>42050329</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2">
         <v>424.848</v>
@@ -2490,8 +3019,20 @@
       <c r="E74" s="2">
         <v>9346656</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="2">
+        <v>202006</v>
+      </c>
+      <c r="G74" s="3">
+        <v>-0.569100557584592</v>
+      </c>
+      <c r="H74" s="3">
+        <v>-0.523636400699615</v>
+      </c>
+      <c r="I74" s="3">
+        <v>16692380.5777381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>202008</v>
       </c>
@@ -2499,16 +3040,28 @@
         <v>42050329</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
         <v>522.036</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="4">
         <v>11484792</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="2">
+        <v>202007</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.205567820261316</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.188928484916687</v>
+      </c>
+      <c r="I75" s="3">
+        <v>9887940.86832502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>202009</v>
       </c>
@@ -2516,16 +3069,28 @@
         <v>42050329</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2">
         <v>497.356</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="4">
         <v>10941832</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="2">
+        <v>202008</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-0.0483356142759028</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-0.0638637766242027</v>
+      </c>
+      <c r="I76" s="3">
+        <v>11944183.4928134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>202010</v>
       </c>
@@ -2533,7 +3098,7 @@
         <v>42050329</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
         <v>453.8</v>
@@ -2541,8 +3106,20 @@
       <c r="E77" s="2">
         <v>9983600</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="2">
+        <v>202009</v>
+      </c>
+      <c r="G77" s="3">
+        <v>-0.0914569191957195</v>
+      </c>
+      <c r="H77" s="3">
+        <v>-0.0870251134037971</v>
+      </c>
+      <c r="I77" s="3">
+        <v>11205230.0800187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>202011</v>
       </c>
@@ -2550,7 +3127,7 @@
         <v>42050329</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
         <v>168.74</v>
@@ -2558,8 +3135,20 @@
       <c r="E78" s="2">
         <v>3712280</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="2">
+        <v>202010</v>
+      </c>
+      <c r="G78" s="3">
+        <v>-0.98558990733485</v>
+      </c>
+      <c r="H78" s="3">
+        <v>-0.9721639752388</v>
+      </c>
+      <c r="I78" s="3">
+        <v>10271319.7312658</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>202101</v>
       </c>
@@ -2567,7 +3156,7 @@
         <v>42050329</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2">
         <v>291.1</v>
@@ -2575,8 +3164,20 @@
       <c r="E79" s="2">
         <v>6404200</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="2">
+        <v>202011</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.00191772671209467</v>
+      </c>
+      <c r="H79" s="3">
+        <v>-0.0272035375237465</v>
+      </c>
+      <c r="I79" s="3">
+        <v>3885265.74360612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>202102</v>
       </c>
@@ -2584,7 +3185,7 @@
         <v>42050329</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
         <v>375.364</v>
@@ -2592,8 +3193,20 @@
       <c r="E80" s="2">
         <v>8258008</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="2">
+        <v>202012</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.540910628140069</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.484741747379303</v>
+      </c>
+      <c r="I80" s="3">
+        <v>3780997.40783243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>202103</v>
       </c>
@@ -2601,16 +3214,28 @@
         <v>42050329</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
         <v>575.92</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="4">
         <v>12670240</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="2">
+        <v>202101</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.253460550810402</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.244269222021103</v>
+      </c>
+      <c r="I81" s="3">
+        <v>6139416.39709885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>202104</v>
       </c>
@@ -2618,16 +3243,28 @@
         <v>42050329</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
         <v>476.068</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="4">
         <v>10473496</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="2">
+        <v>202102</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.427146848511212</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.430619895458221</v>
+      </c>
+      <c r="I82" s="3">
+        <v>7838119.49790759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>202105</v>
       </c>
@@ -2635,7 +3272,7 @@
         <v>42050329</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2">
         <v>445.032</v>
@@ -2643,8 +3280,20 @@
       <c r="E83" s="2">
         <v>9790704</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="2">
+        <v>202103</v>
+      </c>
+      <c r="G83" s="3">
+        <v>-0.190044570335353</v>
+      </c>
+      <c r="H83" s="3">
+        <v>-0.274360924959183</v>
+      </c>
+      <c r="I83" s="3">
+        <v>12056680.2718139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>202106</v>
       </c>
@@ -2652,7 +3301,7 @@
         <v>42050329</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2">
         <v>364.94</v>
@@ -2660,8 +3309,20 @@
       <c r="E84" s="2">
         <v>8028680</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="2">
+        <v>202104</v>
+      </c>
+      <c r="G84" s="3">
+        <v>-0.0672683400547962</v>
+      </c>
+      <c r="H84" s="3">
+        <v>-0.151993095874786</v>
+      </c>
+      <c r="I84" s="3">
+        <v>9163772.46065538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>202107</v>
       </c>
@@ -2669,7 +3330,7 @@
         <v>42050329</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2">
         <v>420.612</v>
@@ -2677,8 +3338,20 @@
       <c r="E85" s="2">
         <v>9253464</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="2">
+        <v>202105</v>
+      </c>
+      <c r="G85" s="3">
+        <v>-0.197921312788741</v>
+      </c>
+      <c r="H85" s="3">
+        <v>-0.217773616313934</v>
+      </c>
+      <c r="I85" s="3">
+        <v>7871627.3565897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>202108</v>
       </c>
@@ -2686,16 +3359,28 @@
         <v>42050329</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2">
         <v>521.492</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="4">
         <v>11472824</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="2">
+        <v>202106</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.141616074283772</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0.164625912904739</v>
+      </c>
+      <c r="I86" s="3">
+        <v>6331208.74925434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>202109</v>
       </c>
@@ -2703,16 +3388,28 @@
         <v>42050329</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D87" s="2">
         <v>610.052</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="4">
         <v>13421144</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="2">
+        <v>202107</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.214524212896775</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.22344371676445</v>
+      </c>
+      <c r="I87" s="3">
+        <v>7464191.43098508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>202110</v>
       </c>
@@ -2720,7 +3417,7 @@
         <v>42050329</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
         <v>423.644</v>
@@ -2728,8 +3425,20 @@
       <c r="E88" s="2">
         <v>9320168</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="2">
+        <v>202108</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.156572389216265</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.147200912237167</v>
+      </c>
+      <c r="I88" s="3">
+        <v>9333040.57494963</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>202111</v>
       </c>
@@ -2737,7 +3446,7 @@
         <v>42050329</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D89" s="2">
         <v>180.44</v>
@@ -2745,8 +3454,20 @@
       <c r="E89" s="2">
         <v>3969680</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="2">
+        <v>202109</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-0.363930891089972</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-0.368226945400238</v>
+      </c>
+      <c r="I89" s="3">
+        <v>10813136.96898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>202201</v>
       </c>
@@ -2754,7 +3475,7 @@
         <v>42050329</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2">
         <v>210.336</v>
@@ -2762,8 +3483,20 @@
       <c r="E90" s="2">
         <v>5100648</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="2">
+        <v>202110</v>
+      </c>
+      <c r="G90" s="3">
+        <v>-0.850326150303873</v>
+      </c>
+      <c r="H90" s="3">
+        <v>-0.855971097946167</v>
+      </c>
+      <c r="I90" s="3">
+        <v>7482259.31904049</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>202202</v>
       </c>
@@ -2771,7 +3504,7 @@
         <v>42050329</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2">
         <v>371.98</v>
@@ -2779,8 +3512,20 @@
       <c r="E91" s="2">
         <v>9020515</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="2">
+        <v>202111</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-0.205289262230995</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-0.17035385966301</v>
+      </c>
+      <c r="I91" s="3">
+        <v>3178989.93399375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>202203</v>
       </c>
@@ -2788,16 +3533,28 @@
         <v>42050329</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2">
         <v>562.364</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="4">
         <v>13637327</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="2">
+        <v>202112</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.357813525677644</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.469490379095078</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2681052.91857716</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>202204</v>
       </c>
@@ -2805,7 +3562,7 @@
         <v>42050329</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
         <v>367.02</v>
@@ -2813,8 +3570,20 @@
       <c r="E93" s="2">
         <v>8900235</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="2">
+        <v>202201</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.568075514917265</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.535358428955078</v>
+      </c>
+      <c r="I93" s="3">
+        <v>4287484.15250943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>202205</v>
       </c>
@@ -2822,7 +3591,7 @@
         <v>42050329</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
         <v>409.348</v>
@@ -2830,8 +3599,20 @@
       <c r="E94" s="2">
         <v>9926689</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="2">
+        <v>202202</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.412401156733845</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.385272055864334</v>
+      </c>
+      <c r="I94" s="3">
+        <v>7323282.39379811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>202206</v>
       </c>
@@ -2839,7 +3620,7 @@
         <v>42050329</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2">
         <v>355.632</v>
@@ -2847,8 +3628,20 @@
       <c r="E95" s="2">
         <v>8624076</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="2">
+        <v>202203</v>
+      </c>
+      <c r="G95" s="3">
+        <v>-0.425788671118917</v>
+      </c>
+      <c r="H95" s="3">
+        <v>-0.343933314085007</v>
+      </c>
+      <c r="I95" s="3">
+        <v>10765329.528441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>202207</v>
       </c>
@@ -2856,7 +3649,7 @@
         <v>42050329</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2">
         <v>223.632</v>
@@ -2864,8 +3657,20 @@
       <c r="E96" s="2">
         <v>5423076</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="2">
+        <v>202204</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.10886829565747</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0.121943607926369</v>
+      </c>
+      <c r="I96" s="3">
+        <v>7632362.18577872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>202208</v>
       </c>
@@ -2873,7 +3678,7 @@
         <v>42050329</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2">
         <v>269.04</v>
@@ -2881,8 +3686,20 @@
       <c r="E97" s="2">
         <v>6524220</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="2">
+        <v>202205</v>
+      </c>
+      <c r="G97" s="3">
+        <v>-0.140301142373402</v>
+      </c>
+      <c r="H97" s="3">
+        <v>-0.238973826169968</v>
+      </c>
+      <c r="I97" s="3">
+        <v>8622206.37754746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>202209</v>
       </c>
@@ -2890,7 +3707,7 @@
         <v>42050329</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D98" s="2">
         <v>356.564</v>
@@ -2898,8 +3715,20 @@
       <c r="E98" s="2">
         <v>8646677</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="2">
+        <v>202206</v>
+      </c>
+      <c r="G98" s="3">
+        <v>-0.462240930134604</v>
+      </c>
+      <c r="H98" s="3">
+        <v>-0.195994019508362</v>
+      </c>
+      <c r="I98" s="3">
+        <v>6789431.11110095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>202210</v>
       </c>
@@ -2907,7 +3736,7 @@
         <v>42050329</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
         <v>75.068</v>
@@ -2915,8 +3744,20 @@
       <c r="E99" s="2">
         <v>1820399</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="2">
+        <v>202207</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.184106588505977</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0.578004717826843</v>
+      </c>
+      <c r="I99" s="3">
+        <v>5581028.63904321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>202211</v>
       </c>
@@ -2924,7 +3765,7 @@
         <v>42050329</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2">
         <v>175.724</v>
@@ -2932,96 +3773,265 @@
       <c r="E100" s="2">
         <v>4261307</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="4">
+      <c r="F100" s="2">
+        <v>202208</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.28074427091707</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-0.0949632450938225</v>
+      </c>
+      <c r="I100" s="3">
+        <v>9948063.40736691</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
         <v>202302</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4">
+      <c r="B101" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="2">
+        <f>E101/24250</f>
+        <v>475.311035292222</v>
+      </c>
+      <c r="E101" s="3">
+        <v>11526292.6058364</v>
+      </c>
+      <c r="F101" s="2">
+        <v>202209</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1.54768669000071</v>
+      </c>
+      <c r="I101" s="3">
+        <v>9046832.03179478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
         <v>202303</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="4">
+      <c r="B102" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" ref="D102:D110" si="0">E102/24250</f>
+        <v>718.581162215952</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17425593.1837368</v>
+      </c>
+      <c r="F102" s="2">
+        <v>202210</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.842961516441996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
         <v>202304</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="4">
+      <c r="B103" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="0"/>
+        <v>468.973213681468</v>
+      </c>
+      <c r="E103" s="3">
+        <v>11372600.4317756</v>
+      </c>
+      <c r="F103" s="2">
+        <v>202211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
         <v>202305</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="4">
+      <c r="B104" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="0"/>
+        <v>523.059365524205</v>
+      </c>
+      <c r="E104" s="3">
+        <v>12684189.613962</v>
+      </c>
+      <c r="F104" s="2">
+        <v>202212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
         <v>202306</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="4">
+      <c r="B105" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="0"/>
+        <v>454.421779709036</v>
+      </c>
+      <c r="E105" s="3">
+        <v>11019728.1579441</v>
+      </c>
+      <c r="F105" s="2">
+        <v>202301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
         <v>202307</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="4">
+      <c r="B106" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="0"/>
+        <v>285.753946519627</v>
+      </c>
+      <c r="E106" s="3">
+        <v>6929533.20310095</v>
+      </c>
+      <c r="F106" s="2">
+        <v>202302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
         <v>202308</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="4">
+      <c r="B107" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="0"/>
+        <v>343.775681136783</v>
+      </c>
+      <c r="E107" s="3">
+        <v>8336560.267567</v>
+      </c>
+      <c r="F107" s="2">
+        <v>202303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
         <v>202309</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="4">
+      <c r="B108" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="0"/>
+        <v>455.612676834282</v>
+      </c>
+      <c r="E108" s="3">
+        <v>11048607.4132314</v>
+      </c>
+      <c r="F108" s="2">
+        <v>202304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
         <v>202310</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="4">
+      <c r="B109" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="0"/>
+        <v>95.920855838176</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2326080.75407577</v>
+      </c>
+      <c r="F109" s="2">
+        <v>202305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
         <v>202311</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="B110" s="1">
+        <v>42050329</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="0"/>
+        <v>224.537745364791</v>
+      </c>
+      <c r="E110" s="3">
+        <v>5445040.32509619</v>
+      </c>
+      <c r="F110" s="2">
+        <v>202306</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111"/>
+      <c r="F111" s="2">
+        <v>202307</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="2">
+        <v>202308</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="2">
+        <v>202309</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="2">
+        <v>202310</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="2">
+        <v>202311</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final_result/A3.xlsx
+++ b/final_result/A3.xlsx
@@ -76,14 +76,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,133 +564,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4008,7 +4001,6 @@
     <row r="111" spans="2:6">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
-      <c r="D111"/>
       <c r="F111" s="2">
         <v>202307</v>
       </c>
